--- a/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
+++ b/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Sauna (15)</t>
   </si>
   <si>
-    <t>Jacuzzi i basen (15)</t>
-  </si>
-  <si>
-    <t>Fitness (16)</t>
-  </si>
-  <si>
     <t>Gabinet (20)</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>22, 23 (?)</t>
   </si>
   <si>
-    <t>Adres MAC</t>
-  </si>
-  <si>
     <t>YAM-01</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>YAM-13</t>
   </si>
   <si>
-    <t>Adres IP (aktualny)</t>
-  </si>
-  <si>
     <t>Adres IP (docelowy)</t>
   </si>
   <si>
@@ -163,13 +151,64 @@
   </si>
   <si>
     <t>IP-ID</t>
+  </si>
+  <si>
+    <t>SPA (15)</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>50:33:8B:23:7E:AB</t>
+  </si>
+  <si>
+    <t>50:33:8B:27:88:9F</t>
+  </si>
+  <si>
+    <t>50:33:8B:29:E6:F6</t>
+  </si>
+  <si>
+    <t>50:33:8B:27:88:93</t>
+  </si>
+  <si>
+    <t>50:33:8B:27:6C:6D</t>
+  </si>
+  <si>
+    <t>50:33:8B:29:EE:46</t>
+  </si>
+  <si>
+    <t>50:33:8B:29:6E:8D</t>
+  </si>
+  <si>
+    <t>50:33:8B:27:A3:87</t>
+  </si>
+  <si>
+    <t>50:33:8B:6C:66:79</t>
+  </si>
+  <si>
+    <t>50:33:8B:28:31:07</t>
+  </si>
+  <si>
+    <t>50:33:8B:E3:D2:96</t>
+  </si>
+  <si>
+    <t>50:F1:4A:F1:44:C6</t>
+  </si>
+  <si>
+    <t>50:33:8B:EA:5A:01</t>
+  </si>
+  <si>
+    <t>9C:1D:58:00:55:B3</t>
+  </si>
+  <si>
+    <t>Silownia (16)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +216,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,11 +250,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -212,6 +269,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -260,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,22 +564,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="5" width="33.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,24 +590,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -553,15 +613,15 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -570,202 +630,250 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="1">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D5" s="1">
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="1">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D7" s="1">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" s="1">
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D10" s="1">
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="1">
         <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="1">
         <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="1">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D15" s="1">
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="1">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
         <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -775,7 +883,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -787,7 +895,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
+++ b/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Oranżeria zewnętrzny taras (3)</t>
   </si>
   <si>
-    <t>Sauna (15)</t>
-  </si>
-  <si>
     <t>Gabinet (20)</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>20 (panel dotykowy)</t>
   </si>
   <si>
-    <t>22, 23 (?)</t>
-  </si>
-  <si>
     <t>YAM-01</t>
   </si>
   <si>
@@ -202,12 +196,18 @@
   </si>
   <si>
     <t>Silownia (16)</t>
+  </si>
+  <si>
+    <t>Sauna (?15?)</t>
+  </si>
+  <si>
+    <t>Przyciski 1 i 2 zajęte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +224,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,7 +265,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -320,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,7 +367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,25 +576,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,21 +602,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -613,15 +625,15 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -630,245 +642,251 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D11" s="4">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4">
         <v>33</v>
       </c>
-      <c r="F5" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="3">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +901,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -895,7 +913,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
+++ b/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +57,6 @@
     <t>HOBBY Warsztat (19)</t>
   </si>
   <si>
-    <t>17,18 (?)</t>
-  </si>
-  <si>
     <t>20 (panel dotykowy)</t>
   </si>
   <si>
@@ -198,10 +195,7 @@
     <t>Silownia (16)</t>
   </si>
   <si>
-    <t>Sauna (?15?)</t>
-  </si>
-  <si>
-    <t>Przyciski 1 i 2 zajęte</t>
+    <t>Sauna (strefa WAGO)</t>
   </si>
 </sst>
 </file>
@@ -224,18 +218,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -256,16 +244,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -576,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +579,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,21 +587,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -625,15 +610,15 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -642,251 +627,245 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="4">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="4">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="3">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="4">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D11" s="3">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="F11" s="3">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="4">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4">
-        <v>31</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D14" s="3">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="F14" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="4">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
+++ b/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
@@ -218,7 +218,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,7 +573,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,36 +609,38 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="6"/>
+      <c r="D3" s="3">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="6"/>
+      <c r="D4" s="3">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>19</v>
       </c>
     </row>

--- a/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
+++ b/Kurasik/doc/AV/Yamaha WXAD-10 - lista.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -174,21 +174,12 @@
     <t>50:33:8B:27:A3:87</t>
   </si>
   <si>
-    <t>50:33:8B:6C:66:79</t>
-  </si>
-  <si>
     <t>50:33:8B:28:31:07</t>
   </si>
   <si>
-    <t>50:33:8B:E3:D2:96</t>
-  </si>
-  <si>
     <t>50:F1:4A:F1:44:C6</t>
   </si>
   <si>
-    <t>50:33:8B:EA:5A:01</t>
-  </si>
-  <si>
     <t>9C:1D:58:00:55:B3</t>
   </si>
   <si>
@@ -196,13 +187,25 @@
   </si>
   <si>
     <t>Sauna (strefa WAGO)</t>
+  </si>
+  <si>
+    <t>.41</t>
+  </si>
+  <si>
+    <t>.58</t>
+  </si>
+  <si>
+    <t>2C:AB:33:AB:9A:F6</t>
+  </si>
+  <si>
+    <t>2C:AB:33:21:EB:7C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +215,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF4D4D4D"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +247,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,16 +268,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,25 +585,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+      <selection activeCell="C22" sqref="C22:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,50 +623,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D3" s="3">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" s="3">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="3">
@@ -664,14 +689,14 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="3">
@@ -684,14 +709,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="3">
@@ -704,14 +729,14 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="3">
@@ -724,14 +749,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="3">
@@ -744,15 +769,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="3">
         <v>28</v>
@@ -764,14 +789,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="3">
@@ -784,14 +809,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="3">
@@ -804,15 +829,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>53</v>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="3">
         <v>31</v>
@@ -824,14 +849,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="3">
@@ -844,15 +869,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D15" s="3">
         <v>33</v>
@@ -864,20 +889,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,7 +910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -903,7 +922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
